--- a/MainProject/CommonFiles/AddEvents.xlsx
+++ b/MainProject/CommonFiles/AddEvents.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>CourseName</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>TO be the best</t>
-  </si>
-  <si>
-    <t>Registration Closed</t>
   </si>
 </sst>
 </file>
@@ -412,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,8 +496,8 @@
       <c r="L2">
         <v>24042020</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
+      <c r="M2" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
